--- a/stat_arb/pair_perform/002236.SZ@002415.SZ.xlsx
+++ b/stat_arb/pair_perform/002236.SZ@002415.SZ.xlsx
@@ -444,22 +444,22 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>158912.1482017663</v>
+        <v>-30090.37441778835</v>
       </c>
       <c r="E2">
-        <v>0.2498147333864162</v>
+        <v>-0.04730298437054004</v>
       </c>
       <c r="F2">
-        <v>0.2498147333864162</v>
+        <v>-0.04730298437054004</v>
       </c>
       <c r="G2">
-        <v>1.481204615619884</v>
+        <v>-0.2769053909173391</v>
       </c>
       <c r="H2">
-        <v>0.09413535820875518</v>
+        <v>0.1457109819532206</v>
       </c>
       <c r="I2">
-        <v>156</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
